--- a/web/public/template.xlsx
+++ b/web/public/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1481,21 +1481,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M26"/>
+  <dimension ref="B1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:K26"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.0916666666667" customWidth="1"/>
-    <col min="3" max="4" width="17.3583333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.0925925925926" customWidth="1"/>
+    <col min="3" max="4" width="17.3611111111111" customWidth="1"/>
     <col min="5" max="5" width="19.25" customWidth="1"/>
-    <col min="6" max="6" width="19.6166666666667" customWidth="1"/>
-    <col min="7" max="7" width="16.2666666666667" customWidth="1"/>
-    <col min="8" max="8" width="25.425" customWidth="1"/>
-    <col min="11" max="11" width="14.1083333333333" customWidth="1"/>
+    <col min="6" max="6" width="19.6203703703704" customWidth="1"/>
+    <col min="7" max="7" width="16.2685185185185" customWidth="1"/>
+    <col min="8" max="8" width="25.4259259259259" customWidth="1"/>
+    <col min="11" max="11" width="14.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:8">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" ht="15" spans="2:11">
+    <row r="7" spans="2:11">
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
@@ -1596,7 +1596,7 @@
       <c r="J7" s="14"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" ht="15" spans="2:11">
+    <row r="8" spans="2:11">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -1608,7 +1608,7 @@
       <c r="J8" s="14"/>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" ht="15" spans="2:11">
+    <row r="9" spans="2:11">
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
@@ -1620,7 +1620,7 @@
       <c r="J9" s="14"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" ht="15" spans="2:11">
+    <row r="10" spans="2:11">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -1632,8 +1632,7 @@
       <c r="J10" s="14"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" ht="15" spans="1:13">
-      <c r="A11" s="16"/>
+    <row r="11" spans="2:13">
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
@@ -1647,8 +1646,7 @@
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
     </row>
-    <row r="12" ht="15" spans="1:13">
-      <c r="A12" s="16"/>
+    <row r="12" spans="2:13">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -1662,8 +1660,7 @@
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
     </row>
-    <row r="13" ht="15" spans="1:13">
-      <c r="A13" s="16"/>
+    <row r="13" spans="2:13">
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
@@ -1677,7 +1674,7 @@
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
     </row>
-    <row r="14" ht="15" spans="2:11">
+    <row r="14" spans="2:11">
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
@@ -1689,7 +1686,7 @@
       <c r="J14" s="14"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" ht="15" spans="2:11">
+    <row r="15" spans="2:11">
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
@@ -1701,7 +1698,7 @@
       <c r="J15" s="14"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" ht="15" spans="2:11">
+    <row r="16" spans="2:11">
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
@@ -1713,7 +1710,7 @@
       <c r="J16" s="14"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" ht="15" spans="2:11">
+    <row r="17" spans="2:11">
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="15"/>
@@ -1725,7 +1722,7 @@
       <c r="J17" s="14"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" ht="15" spans="2:11">
+    <row r="18" spans="2:11">
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
@@ -1737,7 +1734,7 @@
       <c r="J18" s="14"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" ht="15" spans="2:11">
+    <row r="19" spans="2:11">
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
@@ -1749,7 +1746,7 @@
       <c r="J19" s="14"/>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" ht="15" spans="2:11">
+    <row r="20" spans="2:11">
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="15"/>
@@ -1761,7 +1758,7 @@
       <c r="J20" s="14"/>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" ht="15" spans="2:11">
+    <row r="21" spans="2:11">
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="15"/>
@@ -1773,7 +1770,7 @@
       <c r="J21" s="14"/>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" ht="15" spans="2:11">
+    <row r="22" spans="2:11">
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
       <c r="D22" s="15"/>
@@ -1785,7 +1782,7 @@
       <c r="J22" s="14"/>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" ht="15" spans="2:11">
+    <row r="23" spans="2:11">
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
       <c r="D23" s="15"/>
@@ -1797,7 +1794,7 @@
       <c r="J23" s="14"/>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" ht="15" spans="2:11">
+    <row r="24" spans="2:11">
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
@@ -1809,7 +1806,7 @@
       <c r="J24" s="14"/>
       <c r="K24" s="8"/>
     </row>
-    <row r="25" ht="15" spans="2:11">
+    <row r="25" spans="2:11">
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
@@ -1821,7 +1818,7 @@
       <c r="J25" s="14"/>
       <c r="K25" s="8"/>
     </row>
-    <row r="26" ht="15" spans="2:11">
+    <row r="26" spans="2:11">
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
       <c r="D26" s="15"/>
@@ -1854,14 +1851,14 @@
       <selection activeCell="E8" sqref="E8:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.55"/>
-    <col min="4" max="4" width="18.45" customWidth="1"/>
-    <col min="5" max="5" width="17.3583333333333" customWidth="1"/>
-    <col min="7" max="7" width="17.3583333333333" customWidth="1"/>
-    <col min="8" max="8" width="16.2666666666667" customWidth="1"/>
-    <col min="11" max="11" width="16.2666666666667" customWidth="1"/>
+    <col min="1" max="1" width="9.5462962962963"/>
+    <col min="4" max="4" width="18.4537037037037" customWidth="1"/>
+    <col min="5" max="5" width="17.3611111111111" customWidth="1"/>
+    <col min="7" max="7" width="17.3611111111111" customWidth="1"/>
+    <col min="8" max="8" width="16.2685185185185" customWidth="1"/>
+    <col min="11" max="11" width="16.2685185185185" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:8">
